--- a/kougai/timeline.xlsx
+++ b/kougai/timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abekishun/Desktop/卒論/kougai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5257FCDE-AF58-9D41-9CFB-F175A7292178}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2F0273A0-8427-2747-91CB-FAF4D3556698}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19760" yWindow="6340" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{37365851-A55B-9A4E-9803-939163891C54}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>通常の講義</t>
     <rPh sb="0" eb="2">
@@ -104,19 +105,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1限</t>
+    <t>Aクラス</t>
     <rPh sb="0" eb="1">
-      <t>ゲn</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ツウジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2限</t>
-    <rPh sb="0" eb="1">
-      <t>ゲn</t>
+      <t>クサr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックチェーンの仕組み</t>
+    <rPh sb="0" eb="2">
+      <t>シクm</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -125,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,8 +164,36 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +224,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -280,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,6 +357,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,73 +804,73 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="8.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="41" customHeight="1" thickBot="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8" t="s">
+    <row r="4" spans="1:3" ht="45" customHeight="1">
+      <c r="A4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="5" spans="1:3" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
+      <c r="A5" s="26"/>
+      <c r="B5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="23" t="s">
         <v>5</v>
       </c>
     </row>
